--- a/core/static/upload/scrap_data/Soundproofing.xlsx
+++ b/core/static/upload/scrap_data/Soundproofing.xlsx
@@ -425,8 +425,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
